--- a/data/Yting_260321_20210326-103027/Tailing.xlsx
+++ b/data/Yting_260321_20210326-103027/Tailing.xlsx
@@ -9,14 +9,83 @@
   <sheets>
     <sheet name="U-Tailing" sheetId="1" r:id="rId1"/>
     <sheet name="Th-Tailing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extra" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Tailing U SEM</t>
+  </si>
+  <si>
+    <t>Tailing U Cup</t>
+  </si>
+  <si>
+    <t>[V]</t>
+  </si>
+  <si>
+    <t>Tailing Th SEM</t>
+  </si>
+  <si>
+    <t>Tailing Th Cup</t>
+  </si>
+  <si>
+    <t>229Th1</t>
+  </si>
+  <si>
+    <t>230Th1</t>
+  </si>
+  <si>
+    <t>229Th2</t>
+  </si>
+  <si>
+    <t>230Th2</t>
+  </si>
+  <si>
+    <t>[CPS/V_U]</t>
+  </si>
+  <si>
+    <t>[CPS/V_Th]</t>
+  </si>
+  <si>
+    <t>229Th</t>
+  </si>
+  <si>
+    <t>230Th</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,6 +100,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -40,12 +117,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -61,9 +153,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -360,149 +458,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
-      <c r="A1" s="1">
-        <v>228.5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>229</v>
-      </c>
-      <c r="C1" s="1">
-        <v>229.5</v>
-      </c>
-      <c r="D1" s="1">
-        <v>230</v>
-      </c>
-      <c r="E1" s="1">
-        <v>230.5</v>
-      </c>
-      <c r="F1" s="1">
-        <v>231</v>
-      </c>
-      <c r="G1" s="1">
-        <v>231.5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>232</v>
-      </c>
-      <c r="I1" s="1">
-        <v>232.5</v>
-      </c>
-      <c r="J1" s="1">
-        <v>233</v>
-      </c>
-      <c r="K1" s="1">
-        <v>233.5</v>
-      </c>
-      <c r="L1" s="1">
-        <v>234</v>
-      </c>
-      <c r="M1" s="1">
-        <v>234.5</v>
-      </c>
-      <c r="N1" s="1">
-        <v>235</v>
-      </c>
-      <c r="O1" s="1">
-        <v>235.5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>236</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>236.5</v>
-      </c>
-      <c r="R1" s="1">
-        <v>237</v>
-      </c>
-      <c r="S1" s="1">
-        <v>237.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2">
-        <v>3.608412141353321</v>
-      </c>
-      <c r="B2">
-        <v>3.986651879596227</v>
-      </c>
-      <c r="C2">
-        <v>5.143763569390212</v>
-      </c>
-      <c r="D2">
-        <v>7.113335923333176</v>
-      </c>
-      <c r="E2">
-        <v>9.928957654023023</v>
-      </c>
-      <c r="F2">
-        <v>13.62421747405765</v>
-      </c>
-      <c r="G2">
-        <v>18.23270409603496</v>
-      </c>
-      <c r="H2">
-        <v>23.78800623255286</v>
-      </c>
-      <c r="I2">
-        <v>30.32371259620924</v>
-      </c>
-      <c r="J2">
-        <v>37.873411899602</v>
-      </c>
-      <c r="K2">
-        <v>46.47069285532906</v>
-      </c>
-      <c r="L2">
-        <v>76.42055327892182</v>
-      </c>
-      <c r="M2">
-        <v>158.2337528376993</v>
-      </c>
-      <c r="N2">
-        <v>307.2525230219408</v>
-      </c>
-      <c r="O2">
-        <v>538.8190953219258</v>
-      </c>
-      <c r="P2">
-        <v>868.2757012279335</v>
-      </c>
-      <c r="Q2">
-        <v>1310.964572230244</v>
-      </c>
-      <c r="R2">
-        <v>4230.939492033785</v>
-      </c>
-      <c r="S2">
-        <v>23395.12653492401</v>
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>4.628780020994285E-10</v>
+      </c>
+      <c r="C3">
+        <v>8.259077591665801E-10</v>
+      </c>
+      <c r="D3">
+        <v>2.761952919743778E-09</v>
+      </c>
+      <c r="E3">
+        <v>4.397366452410698E-09</v>
+      </c>
+      <c r="F3">
+        <v>8.872957581804942E-09</v>
+      </c>
+      <c r="G3">
+        <v>3.567415422557761E-08</v>
+      </c>
+      <c r="H3">
+        <v>1.008128459655152E-07</v>
+      </c>
+      <c r="I3">
+        <v>4.91241492416067E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>7.591199234430628E-08</v>
+      </c>
+      <c r="C4">
+        <v>7.763532936165853E-08</v>
+      </c>
+      <c r="D4">
+        <v>1.270498343082138E-07</v>
+      </c>
+      <c r="E4">
+        <v>1.627025587391958E-07</v>
+      </c>
+      <c r="F4">
+        <v>1.59713236472489E-07</v>
+      </c>
+      <c r="G4">
+        <v>2.497190795790432E-07</v>
+      </c>
+      <c r="H4">
+        <v>5.040642298275762E-07</v>
+      </c>
+      <c r="I4">
+        <v>1.964965969664268E-06</v>
       </c>
     </row>
   </sheetData>
@@ -512,79 +593,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="1">
-        <v>227.5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>228</v>
-      </c>
-      <c r="C1" s="1">
-        <v>228.5</v>
-      </c>
-      <c r="D1" s="1">
-        <v>229</v>
-      </c>
-      <c r="E1" s="1">
-        <v>229.5</v>
-      </c>
-      <c r="F1" s="1">
-        <v>230</v>
-      </c>
-      <c r="G1" s="1">
-        <v>230.5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>231</v>
-      </c>
-      <c r="I1" s="1">
-        <v>231.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>2.264299974447917</v>
-      </c>
-      <c r="B2">
-        <v>0.4410367635427765</v>
-      </c>
-      <c r="C2">
-        <v>0.04900407926725919</v>
-      </c>
-      <c r="D2">
-        <v>1.381617703761314</v>
-      </c>
-      <c r="E2">
-        <v>4.852960606762268</v>
-      </c>
-      <c r="F2">
-        <v>16.26175402746059</v>
-      </c>
-      <c r="G2">
-        <v>43.88202834898852</v>
-      </c>
-      <c r="H2">
-        <v>247.7195195688964</v>
-      </c>
-      <c r="I2">
-        <v>658.9958504173102</v>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6.511849819012899E-09</v>
+      </c>
+      <c r="C3">
+        <v>7.664500804547132E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3.386161905886707E-07</v>
+      </c>
+      <c r="C4">
+        <v>7.664500804547132E-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>4.628780020994285E-10</v>
+      </c>
+      <c r="B3">
+        <v>8.259077591665801E-10</v>
+      </c>
+      <c r="C3">
+        <v>6.511849819012899E-09</v>
+      </c>
+      <c r="D3">
+        <v>7.664500804547132E-08</v>
       </c>
     </row>
   </sheetData>

--- a/data/Yting_260321_20210326-103027/Tailing.xlsx
+++ b/data/Yting_260321_20210326-103027/Tailing.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="U-Tailing" sheetId="1" r:id="rId1"/>
     <sheet name="Th-Tailing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extra" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>229</t>
   </si>
@@ -42,50 +41,17 @@
     <t>237</t>
   </si>
   <si>
-    <t>Tailing U SEM</t>
-  </si>
-  <si>
-    <t>Tailing U Cup</t>
-  </si>
-  <si>
-    <t>[V]</t>
-  </si>
-  <si>
-    <t>Tailing Th SEM</t>
-  </si>
-  <si>
-    <t>Tailing Th Cup</t>
-  </si>
-  <si>
-    <t>229Th1</t>
-  </si>
-  <si>
-    <t>230Th1</t>
-  </si>
-  <si>
-    <t>229Th2</t>
-  </si>
-  <si>
-    <t>230Th2</t>
-  </si>
-  <si>
     <t>[CPS/V_U]</t>
   </si>
   <si>
     <t>[CPS/V_Th]</t>
-  </si>
-  <si>
-    <t>229Th</t>
-  </si>
-  <si>
-    <t>230Th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +66,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,27 +75,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -153,15 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,132 +398,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1">
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
+    <row r="2" spans="1:8" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>8</v>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0.02892987513121428</v>
       </c>
       <c r="B3">
-        <v>4.628780020994285E-10</v>
+        <v>0.05161923494791126</v>
       </c>
       <c r="C3">
-        <v>8.259077591665801E-10</v>
+        <v>0.1726220574839862</v>
       </c>
       <c r="D3">
-        <v>2.761952919743778E-09</v>
+        <v>0.2748354032756686</v>
       </c>
       <c r="E3">
-        <v>4.397366452410698E-09</v>
+        <v>0.5545598488628088</v>
       </c>
       <c r="F3">
-        <v>8.872957581804942E-09</v>
+        <v>2.229634639098601</v>
       </c>
       <c r="G3">
-        <v>3.567415422557761E-08</v>
+        <v>6.300802872844702</v>
       </c>
       <c r="H3">
-        <v>1.008128459655152E-07</v>
-      </c>
-      <c r="I3">
-        <v>4.91241492416067E-07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>7.591199234430628E-08</v>
-      </c>
-      <c r="C4">
-        <v>7.763532936165853E-08</v>
-      </c>
-      <c r="D4">
-        <v>1.270498343082138E-07</v>
-      </c>
-      <c r="E4">
-        <v>1.627025587391958E-07</v>
-      </c>
-      <c r="F4">
-        <v>1.59713236472489E-07</v>
-      </c>
-      <c r="G4">
-        <v>2.497190795790432E-07</v>
-      </c>
-      <c r="H4">
-        <v>5.040642298275762E-07</v>
-      </c>
-      <c r="I4">
-        <v>1.964965969664268E-06</v>
+        <v>30.70259327600419</v>
       </c>
     </row>
   </sheetData>
@@ -593,115 +499,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1">
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>11</v>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0.4069906136883062</v>
       </c>
       <c r="B3">
-        <v>6.511849819012899E-09</v>
-      </c>
-      <c r="C3">
-        <v>7.664500804547132E-08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>3.386161905886707E-07</v>
-      </c>
-      <c r="C4">
-        <v>7.664500804547132E-07</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>4.628780020994285E-10</v>
-      </c>
-      <c r="B3">
-        <v>8.259077591665801E-10</v>
-      </c>
-      <c r="C3">
-        <v>6.511849819012899E-09</v>
-      </c>
-      <c r="D3">
-        <v>7.664500804547132E-08</v>
+        <v>4.790313002841957</v>
       </c>
     </row>
   </sheetData>
